--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3306171.56500493</v>
+        <v>3304283.983488529</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>607558.114719877</v>
+        <v>211666.6008231516</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8602194.209987784</v>
+        <v>8602194.209987786</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.50719346288</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>14.86965341517866</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>59.43262708185673</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>28.71125398700465</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>144.4888345511683</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.35002255071629</v>
+        <v>234.4970761400737</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>209.3923880792971</v>
+        <v>62.15398405320629</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>268.6413070582232</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634831</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>13.01614235399014</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>93.8087383403614</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1658,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>222.7433136690806</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.1537278750037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>13.20203877768301</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>204.1291651532059</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>72.76043038242828</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151921</v>
+        <v>192.4915006808708</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>157.6718707735984</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2761,13 +2761,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>69.38964214559081</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>42.95895086650303</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965543</v>
+        <v>93.41221638965537</v>
       </c>
       <c r="E31" t="n">
-        <v>18.92077583357656</v>
+        <v>91.23070601801219</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437432</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389792</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571505</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523584</v>
+        <v>54.76109577523582</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550463</v>
@@ -3004,19 +3004,19 @@
         <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700205</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463134</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898711</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857163</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692845</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329052</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378954</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463127</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.94664591678</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="X2" t="n">
-        <v>2013.317548404538</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>2013.317548404538</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>113.6371076753676</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>368.8844281164661</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>773.500346212138</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W4" t="n">
-        <v>519.9493689922781</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>519.9493689922781</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>519.9493689922781</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1606.946621408918</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C5" t="n">
-        <v>1237.984104468507</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D5" t="n">
-        <v>879.7184058617563</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>493.9301532635121</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>82.94424847390451</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4598,19 +4598,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2101.359929106496</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2101.359929106496</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>1727.894170845416</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.54646147304</v>
+        <v>1727.894170845416</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W7" t="n">
-        <v>450.8687156462887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1529.2861479534</v>
+        <v>1408.083041312479</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.778685247039</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
         <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y8" t="n">
-        <v>1915.885988017521</v>
+        <v>1794.6828813766</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4890,40 +4890,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5024,67 +5024,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>359.1696912903951</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="C13" t="n">
-        <v>359.1696912903951</v>
+        <v>705.702398944366</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903951</v>
+        <v>555.5857595320302</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>407.6726659496371</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>260.7827184517267</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247862</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3794404708858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>869.3794404708858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W13" t="n">
-        <v>579.9622704339253</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="X13" t="n">
-        <v>579.9622704339253</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="Y13" t="n">
-        <v>359.1696912903951</v>
+        <v>874.6385818722729</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>373.5080755174547</v>
       </c>
       <c r="L15" t="n">
-        <v>1050.793780719526</v>
+        <v>987.4051452743433</v>
       </c>
       <c r="M15" t="n">
-        <v>1819.161927111987</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>755.1831334811262</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="W16" t="n">
-        <v>465.7659634441656</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="X16" t="n">
-        <v>237.7764125461482</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>108.118726268046</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028587</v>
+        <v>722.0157960249346</v>
       </c>
       <c r="M18" t="n">
-        <v>334.2881267578666</v>
+        <v>1490.383942417396</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022017</v>
+        <v>2294.795520681547</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>709.4512536188994</v>
       </c>
       <c r="W19" t="n">
-        <v>531.3977182706323</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X19" t="n">
-        <v>303.4081673726149</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>436.896710962637</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1050.793780719526</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M21" t="n">
-        <v>1819.161927111987</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,7 +5914,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387593</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011509</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952641</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>731.0291971045607</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>282.2470670630134</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,7 +6002,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M24" t="n">
-        <v>323.6581146605665</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N24" t="n">
-        <v>1128.069692924717</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O24" t="n">
         <v>1797.533454227377</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>969.619892635627</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028589</v>
+        <v>419.7848952835977</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028589</v>
+        <v>649.7480011519468</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578666</v>
+        <v>970.0833206816486</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022017</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>985.4001231459586</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C28" t="n">
-        <v>816.4639402180517</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D28" t="n">
-        <v>666.3473008057159</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E28" t="n">
-        <v>518.4342072233228</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F28" t="n">
-        <v>518.4342072233228</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>1387.841167119728</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W28" t="n">
-        <v>1387.841167119728</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X28" t="n">
-        <v>1387.841167119728</v>
+        <v>447.0175521403266</v>
       </c>
       <c r="Y28" t="n">
-        <v>1167.048587976198</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,25 +6543,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578666</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022017</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2274.303628970133</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030855</v>
+        <v>439.5324299542164</v>
       </c>
       <c r="C31" t="n">
-        <v>452.244711856549</v>
+        <v>396.139550291082</v>
       </c>
       <c r="D31" t="n">
-        <v>357.8889377255839</v>
+        <v>301.783776160117</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441935</v>
+        <v>209.6315478590946</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276538</v>
+        <v>209.6315478590946</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276538</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864671</v>
@@ -6628,7 +6628,7 @@
         <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6640,13 +6640,13 @@
         <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
         <v>1568.628130167069</v>
@@ -6655,16 +6655,16 @@
         <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818916</v>
+        <v>902.6804289818915</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365245</v>
+        <v>730.4517433652449</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030855</v>
+        <v>565.4200295030854</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M33" t="n">
-        <v>865.5852378527474</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="N33" t="n">
-        <v>1669.996816116898</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="O33" t="n">
-        <v>2339.460577419557</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6917,31 +6917,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -7017,25 +7017,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1006.126752553338</v>
       </c>
       <c r="M36" t="n">
-        <v>334.2881267578673</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103128</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7163,25 +7163,25 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7190,7 +7190,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M39" t="n">
-        <v>1288.32563221405</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N39" t="n">
-        <v>1288.32563221405</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,25 +7327,25 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
         <v>1932.236826184156</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,61 +7400,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028583</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028583</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M42" t="n">
-        <v>865.5852378527472</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N42" t="n">
-        <v>1669.996816116898</v>
+        <v>2080.887084961411</v>
       </c>
       <c r="O42" t="n">
-        <v>2339.460577419557</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>578.5528938194191</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083196</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850452</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045199</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
   </sheetData>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,13 +8778,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>436.1942749365419</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>148.8531913054298</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>381.5997261417969</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>370.862340184928</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417969</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417969</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>197.4482781700629</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>330.1271476070797</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>153.4774261093874</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>192.4286140582159</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>29.39432965474739</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.43092547709114</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>273.320959558908</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.45548819888891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>107.071549799509</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338587</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338523</v>
+        <v>93.74585171770673</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>8.821697689779199</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>149.195011206504</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>69.08461360356782</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>72.30993018443569</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437426</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897914</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571501</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147618</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>752620.9540887497</v>
+        <v>752620.9540887498</v>
       </c>
     </row>
     <row r="12">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380331</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="G2" t="n">
         <v>645197.9485672192</v>
@@ -26338,22 +26338,22 @@
         <v>645197.9485672192</v>
       </c>
       <c r="K2" t="n">
-        <v>671256.5266196955</v>
+        <v>671256.5266196956</v>
       </c>
       <c r="L2" t="n">
-        <v>677359.4601380327</v>
+        <v>677359.4601380328</v>
       </c>
       <c r="M2" t="n">
+        <v>677359.4601380329</v>
+      </c>
+      <c r="N2" t="n">
+        <v>677359.4601380333</v>
+      </c>
+      <c r="O2" t="n">
         <v>677359.4601380328</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>677359.4601380331</v>
-      </c>
-      <c r="O2" t="n">
-        <v>677359.4601380327</v>
-      </c>
-      <c r="P2" t="n">
-        <v>677359.4601380328</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284543</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086697</v>
+        <v>10342.90680086693</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284558</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
-      <c r="D4" t="n">
-        <v>139059.1391806191</v>
-      </c>
       <c r="E4" t="n">
-        <v>787.7936905757551</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905757817</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758514</v>
+        <v>787.7936905758825</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758437</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758024</v>
+        <v>787.7936905758825</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477236</v>
+        <v>18952.41620477237</v>
       </c>
       <c r="L4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.5809318964</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134526.6363205398</v>
+        <v>-134526.6363205397</v>
       </c>
       <c r="C6" t="n">
-        <v>455441.2428940048</v>
+        <v>455441.2428940049</v>
       </c>
       <c r="D6" t="n">
-        <v>455441.2428940053</v>
+        <v>455441.2428940051</v>
       </c>
       <c r="E6" t="n">
-        <v>27262.79245103052</v>
+        <v>27165.33332505851</v>
       </c>
       <c r="F6" t="n">
-        <v>552422.8289279267</v>
+        <v>552325.3698019548</v>
       </c>
       <c r="G6" t="n">
-        <v>552422.8289279267</v>
+        <v>552325.3698019546</v>
       </c>
       <c r="H6" t="n">
-        <v>552422.8289279266</v>
+        <v>552325.3698019545</v>
       </c>
       <c r="I6" t="n">
-        <v>552422.828927927</v>
+        <v>552325.3698019548</v>
       </c>
       <c r="J6" t="n">
-        <v>375999.6097353337</v>
+        <v>375902.1506093615</v>
       </c>
       <c r="K6" t="n">
-        <v>511513.2965818549</v>
+        <v>511494.8028439205</v>
       </c>
       <c r="L6" t="n">
-        <v>546094.866585244</v>
+        <v>546094.8665852441</v>
       </c>
       <c r="M6" t="n">
-        <v>421636.7581522738</v>
+        <v>421636.7581522741</v>
       </c>
       <c r="N6" t="n">
-        <v>556437.7733861114</v>
+        <v>556437.7733861115</v>
       </c>
       <c r="O6" t="n">
         <v>556437.773386111</v>
       </c>
       <c r="P6" t="n">
-        <v>512275.1680832655</v>
+        <v>512275.1680832658</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26796,10 +26796,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108371</v>
+        <v>12.92863350108367</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2266482006006072</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>36.03392876660428</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>271.4122208267991</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>227.0903712547343</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>385.0729160337903</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>183.2634239189666</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>264.1729757858747</v>
+        <v>52.02592219651729</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>155.8805036917105</v>
+        <v>303.1189077178013</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>17.64056718375451</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.518305564080947e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28561,10 +28561,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,13 +30235,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>61.04368814949335</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31364,10 +31364,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423925</v>
+        <v>11.76595806653282</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31622,7 +31622,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,28 +31829,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31926,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,22 +32072,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>152.4580040397288</v>
       </c>
       <c r="L15" t="n">
-        <v>147.8809216101168</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32099,7 +32099,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,7 +32309,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32318,25 +32318,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,22 +32546,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>216.4869287318321</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>35.83627885109456</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32570,10 +32570,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>147.3268674777246</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,13 +33020,13 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>31.20105213445663</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -33035,19 +33035,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961188</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -33266,31 +33266,31 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>87.47659412325794</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,25 +33409,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L32" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33503,31 +33503,31 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>269.0626963997152</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>102.4943942860908</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33737,28 +33737,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>270.7639256365559</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>291.4295500091222</v>
       </c>
       <c r="O39" t="n">
-        <v>263.0852605347122</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,25 +34120,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34211,34 +34211,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>102.4943942860912</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,16 +34375,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34454,28 +34454,28 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.29709682323549</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>572.6057846157851</v>
+        <v>304.8525628532086</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>279.0818020779484</v>
       </c>
       <c r="L15" t="n">
-        <v>380.1668871337018</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>11.01175233107084</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>239.4656922197785</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>343.1107267700517</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>383.8369411113148</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>228.7283062629097</v>
+        <v>470.8978973057062</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>157.8248501726762</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197785</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197786</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>271.9649553488649</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412247</v>
+        <v>67.7110267941225</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584675</v>
@@ -36996,19 +36996,19 @@
         <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004317</v>
+        <v>94.42895660043173</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>592.6337262276968</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>286.9827555116977</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>503.0498911601409</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>639.4302122693424</v>
       </c>
       <c r="O39" t="n">
-        <v>514.3513353669973</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>54.85203372561845</v>
       </c>
       <c r="P42" t="n">
-        <v>286.9827555116981</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,16 +38017,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>191.5727678272055</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
